--- a/files/input/productsData.xlsx
+++ b/files/input/productsData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>DB</t>
   </si>
@@ -411,21 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="B14" sqref="B14:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -463,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,16 +492,16 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K2">
-        <v>27300</v>
+        <v>24570</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -574,6 +574,462 @@
         <v>15959.999999999998</v>
       </c>
       <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>65489621</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>5.5</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>5.46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>4500</v>
+      </c>
+      <c r="K5">
+        <v>24570</v>
+      </c>
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>68546513</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4.5</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>3.24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>3000</v>
+      </c>
+      <c r="K6">
+        <v>9720</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>68546511</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>3500</v>
+      </c>
+      <c r="K7">
+        <v>15959.999999999998</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>65489621</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5.5</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>5.46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>4500</v>
+      </c>
+      <c r="K8">
+        <v>24570</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>68546513</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
+      <c r="H9">
+        <v>3.24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>3000</v>
+      </c>
+      <c r="K9">
+        <v>9720</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>68546511</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>3500</v>
+      </c>
+      <c r="K10">
+        <v>15959.999999999998</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>65489621</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5.5</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>5.46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>4500</v>
+      </c>
+      <c r="K11">
+        <v>24570</v>
+      </c>
+      <c r="L11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>68546513</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
+      </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
+      <c r="H12">
+        <v>3.24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>3000</v>
+      </c>
+      <c r="K12">
+        <v>9720</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>68546511</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>3500</v>
+      </c>
+      <c r="K13">
+        <v>15959.999999999998</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>65489621</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5.5</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>5.46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>4500</v>
+      </c>
+      <c r="K14">
+        <v>24570</v>
+      </c>
+      <c r="L14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>68546513</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.5</v>
+      </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>3.24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>3000</v>
+      </c>
+      <c r="K15">
+        <v>9720</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>68546511</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>3500</v>
+      </c>
+      <c r="K16">
+        <v>15959.999999999998</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
     </row>
